--- a/Src/Nonlinear_results.xlsx
+++ b/Src/Nonlinear_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49871719-E802-4D4F-9F17-23263DFE2CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5D26F-5BA6-46E2-A9BE-EA5FF3015E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
   </bookViews>
@@ -36,21 +36,27 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预测值：+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预测值：-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真值：+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真值：-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5158</v>
+        <v>5498</v>
       </c>
       <c r="C2">
-        <v>765</v>
+        <v>425</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -468,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C3">
-        <v>53910</v>
+        <v>53897</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -482,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5325</v>
+        <v>5678</v>
       </c>
       <c r="C4">
-        <v>54675</v>
+        <v>54322</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -526,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -554,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>906</v>
+        <v>973</v>
       </c>
       <c r="C4">
-        <v>9094</v>
+        <v>9027</v>
       </c>
       <c r="D4">
         <v>10000</v>

--- a/Src/Nonlinear_results.xlsx
+++ b/Src/Nonlinear_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5D26F-5BA6-46E2-A9BE-EA5FF3015E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E6D1D-3510-478A-A69C-9EB4A41289F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
   </bookViews>
@@ -460,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5498</v>
+        <v>5097</v>
       </c>
       <c r="C2">
-        <v>425</v>
+        <v>826</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>53897</v>
+        <v>53903</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5678</v>
+        <v>5271</v>
       </c>
       <c r="C4">
-        <v>54322</v>
+        <v>54729</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>931</v>
+        <v>853</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>8978</v>
+        <v>8977</v>
       </c>
       <c r="D3">
         <v>9020</v>
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>973</v>
+        <v>896</v>
       </c>
       <c r="C4">
-        <v>9027</v>
+        <v>9104</v>
       </c>
       <c r="D4">
         <v>10000</v>

--- a/Src/Nonlinear_results.xlsx
+++ b/Src/Nonlinear_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E6D1D-3510-478A-A69C-9EB4A41289F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33318C63-4899-4508-A481-D1A1B43BE2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
+    <workbookView xWindow="6540" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5097</v>
+        <v>5541</v>
       </c>
       <c r="C2">
-        <v>826</v>
+        <v>382</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3">
-        <v>53903</v>
+        <v>53909</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5271</v>
+        <v>5709</v>
       </c>
       <c r="C4">
-        <v>54729</v>
+        <v>54291</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>853</v>
+        <v>936</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>8977</v>
+        <v>8986</v>
       </c>
       <c r="D3">
         <v>9020</v>
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>896</v>
+        <v>970</v>
       </c>
       <c r="C4">
-        <v>9104</v>
+        <v>9030</v>
       </c>
       <c r="D4">
         <v>10000</v>

--- a/Src/Nonlinear_results.xlsx
+++ b/Src/Nonlinear_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Study\博士生课程\线性规划和最小二乘\大作业\Matlab\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33318C63-4899-4508-A481-D1A1B43BE2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F44D4-B707-4FAF-8E5A-8D50DF1A6AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
+    <workbookView xWindow="5955" yWindow="2025" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5541</v>
+        <v>5045</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>878</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3">
-        <v>53909</v>
+        <v>53912</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5709</v>
+        <v>5210</v>
       </c>
       <c r="C4">
-        <v>54291</v>
+        <v>54790</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>8986</v>
+        <v>8978</v>
       </c>
       <c r="D3">
         <v>9020</v>
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>970</v>
+        <v>889</v>
       </c>
       <c r="C4">
-        <v>9030</v>
+        <v>9111</v>
       </c>
       <c r="D4">
         <v>10000</v>

--- a/Src/Nonlinear_results.xlsx
+++ b/Src/Nonlinear_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Study\博士生课程\线性规划和最小二乘\大作业\Matlab\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F44D4-B707-4FAF-8E5A-8D50DF1A6AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E08D8-2856-4BB6-8EAF-F862C74AAFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5955" yWindow="2025" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{414DC50A-C96C-4957-A8C2-357BD03F046C}"/>
   </bookViews>
@@ -460,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5045</v>
+        <v>5561</v>
       </c>
       <c r="C2">
-        <v>878</v>
+        <v>362</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C3">
-        <v>53912</v>
+        <v>53893</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5210</v>
+        <v>5745</v>
       </c>
       <c r="C4">
-        <v>54790</v>
+        <v>54255</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>847</v>
+        <v>933</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>8978</v>
+        <v>8975</v>
       </c>
       <c r="D3">
         <v>9020</v>
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>889</v>
+        <v>978</v>
       </c>
       <c r="C4">
-        <v>9111</v>
+        <v>9022</v>
       </c>
       <c r="D4">
         <v>10000</v>
